--- a/biology/Médecine/Hanaoka_Seishū/Hanaoka_Seishū.xlsx
+++ b/biology/Médecine/Hanaoka_Seishū/Hanaoka_Seishū.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanaoka Seishū (華岡青洲, Hanaoka Seishū?) (23 octobre 1760 - 21 novembre 1835) était un chirurgien japonais de l'époque d'Edo (1603-1868) qui avait des connaissances aussi bien en herbologie chinoise, qu'en médecine occidentale, qu'il avait apprise avec le rangaku (littéralement « études hollandaises », et par prolongation « étude occidentale »). Hanaoka est réputé pour être le premier à avoir pratiqué une opération chirurgicale sous anesthésie générale. Cette opération servit à retirer un cancer de la poitrine du patient, la première de son genre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanaoka Seishū a étudié la médecine à Kyoto, puis est devenu médecin praticien à Wakayama, dans la province de Kii, où il est né. Il a aussi bien appris la médecine japonaise traditionnelle que la médecine européenne (importée par les Hollandais). En raison de la politique d'isolement de l'époque (Sakoku), peu de textes médicaux étrangers ont été autorisés à entrer au Japon. Ceci a limité l'accès de Hanaoka et d'autres médecins japonais aux développements médicaux de l'Occident.
 Peut-être le chirurgien japonais le plus connu de la période Edo, Hanaoka était célèbre pour combiner les chirurgies hollandaise et japonaise et introduire des techniques chirurgicales modernes au Japon. Hanaoka a opéré avec succès l'hydrocèle, la fistule anale, et a même exécuté certains genres de chirurgie plastique. Il fut le premier chirurgien au Japon qui a opéré des cancers du sein et de la bouche, pour enlever l'os nécrotique, et à effectuer des amputations des extrémités. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Hua Tuo et le Mafeisan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hua Tuo (華, 145-220) était un chirurgien chinois. Selon les Chroniques des Trois Royaumes (270 apr. J.-C.) et le Livre des Han postérieurs (430 apr. J.-C.), Hua Tuo a exécuté une opération chirurgicale sous anesthésie générale, utilisant une formule qu'il appelait le Mafeisan (麻沸散) et qui consistait à un mélange de vin et d'extraits de fines herbes. Hua Tuo utilisait même le Mafeisan pour effectuer des opérations importantes telles que la résection des intestins gangreneux. Avant l'opération, il administrait une potion anesthésique par voie orale, dissoute probablement dans du vin, afin d'induire un état d'inconscience et un blocage neuromusculaire partiel.
 La composition exacte du Mafeisan, similaire à toutes les connaissances médicales de Hua Tuo, a été perdue quand il a brûlé ses manuscrits, juste avant sa mort. La composition de la poudre anesthésique n'est pas mentionnée dans les Chroniques des Trois Royaumes, ni dans le Livre des Han postérieurs. Puisque les enseignements confucéens considéraient le corps comme sacré et que la chirurgie était vue comme une forme de mutilation du corps, la chirurgie a été fortement découragée en Chine antique. Pour cette raison, et en dépit du succès de Hua Tuo avec l'anesthésie générale, la pratique de la chirurgie en Chine antique a disparu avec sa mort.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Formulation du Tsūsensan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanaoka était intrigué par le Mafeisan de Hua Tuo. À partir de 1785, Hanaoka a recherché à recréer un composé qui aurait les propriétés pharmacologiques semblables au Mafeisan. Son épouse, qui a participé à ses expériences en tant que volontaire, a perdu la vue à cause des effets secondaires défavorables. Après des années de recherche et d'expérimentation, il a finalement développé une formule qu'il a appelée Tsūsensan (également connu comme Mafutsu-san). Comme celui de Hua Tuo, ce composé s'est composé d'extraits de plusieurs plantes, incluant :
 huit morceaux de yang jin hua (Datura stramonium, stramoine, pomme-épineuse, herbes-aux-taupes, chasse-taupe, herbe du diable, endormeuse, pomme poison, trompette des anges, herbe Jimson ou trompette de la mort) ;
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,9 +647,11 @@
           <t>Utilisation du Tsūsensan comme anesthésique général</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fois perfectionné, Hanaoka a commencé à administrer sa nouvelle boisson sédative pour induire un état d'inconscience de ses patients équivalent à celui de l'anesthésie générale moderne. Kan Aiya (藍屋勘) était une femme de 60 ans dont la famille a été décimée par le cancer du sein - Kan étant la dernière des siens vivante. Le 13 octobre 1804, Hanaoka a exécuté une mastectomie partielle pour le cancer du sein de Kan Aiya, utilisant le Tsūsensan comme anesthésique général[1]. Ceci est considéré aujourd'hui par certains comme la première documentation fiable d'une opération exécutée sous anesthésie générale. Presque quarante ans avant l'anesthésie générale de Crawford Long à Danielsville, en Géorgie.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fois perfectionné, Hanaoka a commencé à administrer sa nouvelle boisson sédative pour induire un état d'inconscience de ses patients équivalent à celui de l'anesthésie générale moderne. Kan Aiya (藍屋勘) était une femme de 60 ans dont la famille a été décimée par le cancer du sein - Kan étant la dernière des siens vivante. Le 13 octobre 1804, Hanaoka a exécuté une mastectomie partielle pour le cancer du sein de Kan Aiya, utilisant le Tsūsensan comme anesthésique général. Ceci est considéré aujourd'hui par certains comme la première documentation fiable d'une opération exécutée sous anesthésie générale. Presque quarante ans avant l'anesthésie générale de Crawford Long à Danielsville, en Géorgie.
 Le succès de Hanaoka en utilisant cette opération indolore est rapidement devenu connu, et les patients ont commencé à arriver de toutes les régions du Japon. Hanaoka a continué à utiliser le Tsūsensan pour ses opérations, comprenant la résection des tumeurs malignes, l'extraction calculs rénaux, et les amputations des extrémités. Avant sa mort en 1835, Hanaoka a effectué plus de 150 opérations du cancer du sein. Il a également conçu et modifié des instruments chirurgicaux, et a formé et instruit beaucoup d'étudiants, utilisant sa méthode qui fut alors appelée : la méthode Hanaoka.
 </t>
         </is>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Manuscrits</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanaoka a écrit les travaux suivants. Aucun de ceux-ci n'a fait l'objet d'une publication imprimée. Comme c'était la coutume au Japon à cette époque, ils étaient tous des manuscrits qui plus tard ont été recopiés par ses étudiants pour leurs usages personnels.
 1805 : Nyuigan chiken-roku, un livre qui fournit une description détaillée de la première opération de Hanaoka pour le carcinome mammaire.
@@ -684,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,7 +724,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'on dise que certains de ses patients ont bénéficié du travail de Hanaoka, il n'a apparemment eu aucun impact sur le développement de l'anesthésie générale dans le reste du monde. La politique d'isolement du shogunat de Tokugawa (Sakoku) a empêché les travaux de Hanaoka d'être rendus publics jusqu'à la fin de l'isolement en 1854. À ce moment-là, différentes techniques pour l'anesthésie générale avaient été indépendamment développées par les scientifiques et les médecins américains et européens. La société japonaise des anesthésistes a cependant incorporé une représentation de la Datura stramonium dans son logo en l'honneur du travail pionnier de Hanaoka.
 La maison de Hanaoka a été préservée  dans sa ville natale (Naga-cho, Kinokawa, Wakayama). Elle est le lieu d'expositions interactives en japonais et en anglais. Elle se trouve à côté d'une faculté, où ont été formés des médecins et des infirmières pour rendre hommage à Hanaoka et à son travail.
@@ -716,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hanaoka_Seish%C5%AB</t>
+          <t>Hanaoka_Seishū</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,9 +758,11 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écrivaine japonaise Sawako Ariyoshi a publié, en 1966, une chronique historique intitulée Kae ou les deux rivales, dans laquelle elle évoque la vie et l'œuvre de Hanaoka Seishū, en narrant une rivalité fictive entre sa mère et son épouse[2],[3]. En 1967, le cinéaste japonais Yasuzō Masumura a réalisé une adaptation cinématographique de l'œuvre romanesque, sous le titre La Femme du docteur Hanaoka[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écrivaine japonaise Sawako Ariyoshi a publié, en 1966, une chronique historique intitulée Kae ou les deux rivales, dans laquelle elle évoque la vie et l'œuvre de Hanaoka Seishū, en narrant une rivalité fictive entre sa mère et son épouse,. En 1967, le cinéaste japonais Yasuzō Masumura a réalisé une adaptation cinématographique de l'œuvre romanesque, sous le titre La Femme du docteur Hanaoka.
 </t>
         </is>
       </c>
